--- a/spliced/walkingToRunning/2023-04-03_16-55-17/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-55-17/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-6.870490602824996</v>
+        <v>4.936917678169539</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.44423136503801</v>
+        <v>-12.71771009072015</v>
       </c>
       <c r="E2" t="n">
-        <v>1.846112507840861</v>
+        <v>3.41959030731864</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6694521307945251</v>
+        <v>2.903977394104004</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68784499168396</v>
+        <v>-3.523428678512573</v>
       </c>
       <c r="H2" t="n">
-        <v>1.881057262420654</v>
+        <v>-6.097240924835205</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-5.919377161108931</v>
+        <v>11.45307619675343</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.44320386389027</v>
+        <v>-9.954130877619217</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.790768362905641</v>
+        <v>7.623632503592415</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.579437255859375</v>
+        <v>1.744969725608826</v>
       </c>
       <c r="G3" t="n">
-        <v>1.968542098999024</v>
+        <v>-0.8538760542869568</v>
       </c>
       <c r="H3" t="n">
-        <v>1.206744909286499</v>
+        <v>-4.247409343719482</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.69960685398268</v>
+        <v>-3.206811956737363</v>
       </c>
       <c r="D4" t="n">
-        <v>-17.49487221759298</v>
+        <v>-14.22782378611358</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.001880023790419</v>
+        <v>-3.585576596467396</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.012999892234802</v>
+        <v>4.650478363037109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0750345662236213</v>
+        <v>11.04139995574951</v>
       </c>
       <c r="H4" t="n">
-        <v>1.888514161109924</v>
+        <v>-3.084672927856445</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.742332152698358</v>
+        <v>-12.97183887854877</v>
       </c>
       <c r="D5" t="n">
-        <v>-14.64200949668885</v>
+        <v>-19.3549799711808</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5405568195425894</v>
+        <v>-15.49820016778038</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.419930934906006</v>
+        <v>-3.62076735496521</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08994826674461361</v>
+        <v>-5.12558650970459</v>
       </c>
       <c r="H5" t="n">
-        <v>1.70954966545105</v>
+        <v>7.287806987762451</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.7425733545551965</v>
+        <v>6.874614751857277</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.08768825945647</v>
+        <v>-17.72338112540867</v>
       </c>
       <c r="E6" t="n">
-        <v>1.297409757323902</v>
+        <v>-7.79767358821371</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6296378970146179</v>
+        <v>-5.951565742492676</v>
       </c>
       <c r="G6" t="n">
-        <v>1.454552054405212</v>
+        <v>1.577590107917786</v>
       </c>
       <c r="H6" t="n">
-        <v>1.549227356910706</v>
+        <v>6.344515323638916</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.936917678169539</v>
+        <v>27.40819798345139</v>
       </c>
       <c r="D7" t="n">
-        <v>-12.71771009072015</v>
+        <v>-14.00006047539093</v>
       </c>
       <c r="E7" t="n">
-        <v>3.41959030731864</v>
+        <v>1.457801404206576</v>
       </c>
       <c r="F7" t="n">
-        <v>2.903977394104004</v>
+        <v>-1.728857636451721</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.523428678512573</v>
+        <v>8.543354034423828</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.097240924835205</v>
+        <v>3.901864051818848</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.45307619675343</v>
+        <v>40.11718940734848</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.954130877619217</v>
+        <v>-4.808408617973335</v>
       </c>
       <c r="E8" t="n">
-        <v>7.623632503592415</v>
+        <v>16.45111835002897</v>
       </c>
       <c r="F8" t="n">
-        <v>1.744969725608826</v>
+        <v>1.824864625930786</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8538760542869568</v>
+        <v>-0.6525410413742065</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.247409343719482</v>
+        <v>-3.505985021591187</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.206811956737363</v>
+        <v>-6.829358805780815</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.22782378611358</v>
+        <v>-18.71223431048175</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.585576596467396</v>
+        <v>7.999558770138284</v>
       </c>
       <c r="F9" t="n">
-        <v>4.650478363037109</v>
+        <v>5.772734642028809</v>
       </c>
       <c r="G9" t="n">
-        <v>11.04139995574951</v>
+        <v>-3.56550669670105</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.084672927856445</v>
+        <v>-3.791476011276245</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-12.97183887854877</v>
+        <v>-8.796926493230012</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.3549799711808</v>
+        <v>-58.53746407446633</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.49820016778038</v>
+        <v>6.315518513969705</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.62076735496521</v>
+        <v>4.579105854034424</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.12558650970459</v>
+        <v>3.013566493988037</v>
       </c>
       <c r="H10" t="n">
-        <v>7.287806987762451</v>
+        <v>-2.666023969650269</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.874614751857277</v>
+        <v>3.485328860904898</v>
       </c>
       <c r="D11" t="n">
-        <v>-17.72338112540867</v>
+        <v>-5.610776631728454</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.79767358821371</v>
+        <v>-5.665500184764032</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.951565742492676</v>
+        <v>-5.41840124130249</v>
       </c>
       <c r="G11" t="n">
-        <v>1.577590107917786</v>
+        <v>-4.322909832000732</v>
       </c>
       <c r="H11" t="n">
-        <v>6.344515323638916</v>
+        <v>2.317283153533936</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27.40819798345139</v>
+        <v>-16.32176755822241</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.00006047539093</v>
+        <v>-11.76148359671859</v>
       </c>
       <c r="E12" t="n">
-        <v>1.457801404206576</v>
+        <v>-5.036116931749546</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.728857636451721</v>
+        <v>-11.62250137329102</v>
       </c>
       <c r="G12" t="n">
-        <v>8.543354034423828</v>
+        <v>-2.614225625991821</v>
       </c>
       <c r="H12" t="n">
-        <v>3.901864051818848</v>
+        <v>11.06896305084228</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40.11718940734848</v>
+        <v>16.76886541947075</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.808408617973335</v>
+        <v>-55.28290149439937</v>
       </c>
       <c r="E13" t="n">
-        <v>16.45111835002897</v>
+        <v>16.80483585855235</v>
       </c>
       <c r="F13" t="n">
-        <v>1.824864625930786</v>
+        <v>7.474494457244873</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6525410413742065</v>
+        <v>-2.812897443771362</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.505985021591187</v>
+        <v>-3.427688121795654</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6.829358805780815</v>
+        <v>-17.68672215420252</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.71223431048175</v>
+        <v>-8.062301013780889</v>
       </c>
       <c r="E14" t="n">
-        <v>7.999558770138284</v>
+        <v>3.262691987597485</v>
       </c>
       <c r="F14" t="n">
-        <v>5.772734642028809</v>
+        <v>1.629921197891235</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.56550669670105</v>
+        <v>-8.41618824005127</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.791476011276245</v>
+        <v>3.490139245986938</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-8.796926493230012</v>
+        <v>6.037598153819246</v>
       </c>
       <c r="D15" t="n">
-        <v>-58.53746407446633</v>
+        <v>-26.96122758284862</v>
       </c>
       <c r="E15" t="n">
-        <v>6.315518513969705</v>
+        <v>22.58520386530009</v>
       </c>
       <c r="F15" t="n">
-        <v>4.579105854034424</v>
+        <v>8.126436233520508</v>
       </c>
       <c r="G15" t="n">
-        <v>3.013566493988037</v>
+        <v>-4.144477844238281</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.666023969650269</v>
+        <v>-0.5264403820037842</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.485328860904898</v>
+        <v>-27.64734548071142</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.610776631728454</v>
+        <v>-30.63590854147206</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.665500184764032</v>
+        <v>-13.72450681354674</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.41840124130249</v>
+        <v>1.081842660903931</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.322909832000732</v>
+        <v>-4.525310039520264</v>
       </c>
       <c r="H16" t="n">
-        <v>2.317283153533936</v>
+        <v>-0.875314474105835</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-16.32176755822241</v>
+        <v>-0.3365890254143977</v>
       </c>
       <c r="D17" t="n">
-        <v>-11.76148359671859</v>
+        <v>-9.820995450019772</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.036116931749546</v>
+        <v>-11.5744883495828</v>
       </c>
       <c r="F17" t="n">
-        <v>-11.62250137329102</v>
+        <v>-1.842840909957886</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.614225625991821</v>
+        <v>-1.715674996376038</v>
       </c>
       <c r="H17" t="n">
-        <v>11.06896305084228</v>
+        <v>-1.691839694976807</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.76886541947075</v>
+        <v>-9.280692992003011</v>
       </c>
       <c r="D18" t="n">
-        <v>-55.28290149439937</v>
+        <v>-14.45616371476128</v>
       </c>
       <c r="E18" t="n">
-        <v>16.80483585855235</v>
+        <v>-11.51578338249869</v>
       </c>
       <c r="F18" t="n">
-        <v>7.474494457244873</v>
+        <v>-15.37276458740234</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.812897443771362</v>
+        <v>-16.33429908752441</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.427688121795654</v>
+        <v>3.632352113723755</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-17.68672215420252</v>
+        <v>-4.598872557930385</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.062301013780889</v>
+        <v>-17.49396556356679</v>
       </c>
       <c r="E19" t="n">
-        <v>3.262691987597485</v>
+        <v>6.897694048674124</v>
       </c>
       <c r="F19" t="n">
-        <v>1.629921197891235</v>
+        <v>7.317900657653809</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.41618824005127</v>
+        <v>-9.003682136535645</v>
       </c>
       <c r="H19" t="n">
-        <v>3.490139245986938</v>
+        <v>-1.13044536113739</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.037598153819246</v>
+        <v>-11.20024363890936</v>
       </c>
       <c r="D20" t="n">
-        <v>-26.96122758284862</v>
+        <v>1.505196239637264</v>
       </c>
       <c r="E20" t="n">
-        <v>22.58520386530009</v>
+        <v>13.08335323955702</v>
       </c>
       <c r="F20" t="n">
-        <v>8.126436233520508</v>
+        <v>0.0980709120631218</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.144477844238281</v>
+        <v>-6.593521118164063</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5264403820037842</v>
+        <v>0.4514724016189575</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-27.64734548071142</v>
+        <v>-36.36955037324309</v>
       </c>
       <c r="D21" t="n">
-        <v>-30.63590854147206</v>
+        <v>-40.35419501428967</v>
       </c>
       <c r="E21" t="n">
-        <v>-13.72450681354674</v>
+        <v>41.72007127430098</v>
       </c>
       <c r="F21" t="n">
-        <v>1.081842660903931</v>
+        <v>9.948039054870604</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.525310039520264</v>
+        <v>6.794189929962158</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.875314474105835</v>
+        <v>0.0589224398136138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-64.13763353098994</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-54.61329487095708</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20.88871420984682</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.0385662317276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.36523699760437</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.002214074134827</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-48.54061980869488</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-15.36169694817591</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-18.69812476116687</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.924617052078247</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8201870322227478</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.637111783027649</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.763155895730725</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-17.02286973725198</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-7.877094351727034</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-9.886119842529297</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-17.29250526428223</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.4699813723564148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-12.50246284319005</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-25.3144741265671</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.428819822228345</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.15168571472168</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.607833862304688</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3.956591844558716</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.77425661294355</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.042295404102455</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24.03419656857195</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.8223176002502441</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-5.908023357391357</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7502790689468384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.1896470111351</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-11.74091952780091</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.447055526402</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.825499057769775</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2695784866809845</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.960819005966186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-33.40386452882192</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-74.93744767230478</v>
+      </c>
+      <c r="E28" t="n">
+        <v>35.67094943834376</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.197174549102783</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.826995134353638</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.098770618438721</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-55.71352932764142</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-17.14117759207022</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-22.77800974638568</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.679322838783264</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.35203742980957</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.066413402557373</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.357292139011771</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.564726891724789</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.292621791362762</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-7.180881023406982</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-6.29631233215332</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12.63969612121582</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-26.65620994567871</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-36.59538269042969</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.42856240272522</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2972753643989563</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.379552841186523</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.9200555682182312</v>
       </c>
     </row>
   </sheetData>
